--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T23:32:27+00:00</t>
+    <t>2024-05-16T23:40:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T23:40:29+00:00</t>
+    <t>2024-05-16T23:56:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T23:56:46+00:00</t>
+    <t>2024-05-17T00:01:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T00:01:31+00:00</t>
+    <t>2024-05-17T00:05:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T00:05:05+00:00</t>
+    <t>2024-05-17T00:21:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T00:21:27+00:00</t>
+    <t>2024-05-17T00:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T00:21:27+00:00</t>
+    <t>2024-05-17T00:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T00:32:30+00:00</t>
+    <t>2024-05-17T00:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T08:54:29+00:00</t>
+    <t>2024-05-17T13:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
